--- a/StimuliTable-Encoding_4-blocks_48-pairs_cont-loc_12345-delays.xlsx
+++ b/StimuliTable-Encoding_4-blocks_48-pairs_cont-loc_12345-delays.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -228,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:W305"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C230" activeCellId="0" sqref="C230:C305"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16429,4 +16430,429 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <f aca="false">SUM(A1:A76)</f>
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <f aca="false">A77+(76*3000)</f>
+        <v>404000</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <f aca="false">(A78/1000)/60</f>
+        <v>6.73333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>